--- a/Docs/TablasDatos-Lab6.xlsx
+++ b/Docs/TablasDatos-Lab6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\2025-2\Asistencia\Laboratorios\Lab6\ISIS1225-Laboratorio-6\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD33DA02-4501-4B58-9D83-E0FFBD1B4D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0874D233-4ADE-44F2-94BD-F46DF4FD4B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="767" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="767" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab6" sheetId="1" r:id="rId1"/>
@@ -626,6 +626,18 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2691782.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>819181.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>690444.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>608394.04</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -635,6 +647,18 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>66113.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36172.43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31526.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29224.27</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -733,6 +757,18 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>508024.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>451868.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>432739.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>423339.37</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -742,6 +778,18 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25500.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25439.73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25850.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25750.38</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1299,6 +1347,18 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2691782.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>819181.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>690444.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>608394.04</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1445,6 +1505,18 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>508024.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>451868.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>432739.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>423339.37</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2823,7 +2895,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CAFD5B44-21B9-42C7-B503-C146EF1BA3EE}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="84" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2834,7 +2906,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{680E7371-595A-4F03-ABE3-E0257A96E5F2}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="84" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2845,7 +2917,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9297051" cy="6073205"/>
+    <xdr:ext cx="9289143" cy="6059714"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -2878,7 +2950,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9297051" cy="6073205"/>
+    <xdr:ext cx="9289143" cy="6059714"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3231,24 +3303,24 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3259,42 +3331,58 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>0.1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="7"/>
+      <c r="B3" s="5">
+        <v>2691782.16</v>
+      </c>
+      <c r="C3" s="7">
+        <v>66113.61</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>0.5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="2">
+        <v>819181.54</v>
+      </c>
+      <c r="C4" s="7">
+        <v>36172.43</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>0.7</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="7"/>
+      <c r="B5" s="2">
+        <v>690444.67</v>
+      </c>
+      <c r="C5" s="7">
+        <v>31526.31</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>0.9</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="2">
+        <v>608394.04</v>
+      </c>
+      <c r="C6" s="7">
+        <v>29224.27</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -3305,35 +3393,51 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="5"/>
+      <c r="B11" s="2">
+        <v>508024.12</v>
+      </c>
+      <c r="C11" s="5">
+        <v>25500.74</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="2">
+        <v>451868.93</v>
+      </c>
+      <c r="C12" s="2">
+        <v>25439.73</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>6</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="2">
+        <v>432739.62</v>
+      </c>
+      <c r="C13" s="2">
+        <v>25850.94</v>
+      </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>8</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="2">
+        <v>423339.37</v>
+      </c>
+      <c r="C14" s="2">
+        <v>25750.38</v>
+      </c>
     </row>
-    <row r="23" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="14.7" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
@@ -3359,6 +3463,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="17" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="af74a0f8eb440a60883e9dd833f0742f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5ceeff32ffca1089660572a8ebd1782" ns2:_="" ns3:_="">
     <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -3607,15 +3720,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
   <ds:schemaRefs>
@@ -3628,6 +3732,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E10B9E65-6C88-4633-81F7-F02338B2B10B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3644,12 +3756,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>